--- a/cleancali2.xlsx
+++ b/cleancali2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayley/Jupyterlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F847256-5040-C943-AC46-BAD37711272C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D03DDC3-7A14-0548-BF48-FAB31513583E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1700" windowWidth="19920" windowHeight="19160" xr2:uid="{217FA90D-3AB8-2E4E-B9D5-1020BAD2E970}"/>
   </bookViews>
@@ -4020,10 +4020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1C786D-F4D3-484D-B991-EE13A3522F51}">
-  <dimension ref="A1:L177"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6908,479 +6908,499 @@
         <v>475</v>
       </c>
     </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>545</v>
+      </c>
+      <c r="B137" t="s">
+        <v>223</v>
+      </c>
+      <c r="E137" t="s">
+        <v>647</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="H137" t="s">
+        <v>646</v>
+      </c>
+      <c r="J137" t="s">
+        <v>645</v>
+      </c>
+      <c r="K137" t="s">
+        <v>644</v>
+      </c>
+      <c r="L137" t="s">
+        <v>643</v>
+      </c>
+    </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>545</v>
+        <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>223</v>
-      </c>
-      <c r="E138" t="s">
-        <v>647</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="H138" t="s">
-        <v>646</v>
-      </c>
-      <c r="J138" t="s">
-        <v>645</v>
-      </c>
-      <c r="K138" t="s">
-        <v>644</v>
-      </c>
-      <c r="L138" t="s">
-        <v>643</v>
+        <v>224</v>
+      </c>
+      <c r="C138" t="s">
+        <v>390</v>
+      </c>
+      <c r="D138" t="s">
+        <v>391</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>57</v>
-      </c>
-      <c r="B139" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="C139" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D139" t="s">
-        <v>391</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>642</v>
+        <v>393</v>
+      </c>
+      <c r="H139" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>225</v>
       </c>
       <c r="C140" t="s">
-        <v>392</v>
+        <v>547</v>
       </c>
       <c r="D140" t="s">
-        <v>393</v>
-      </c>
-      <c r="H140" t="s">
-        <v>641</v>
+        <v>546</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
-      </c>
-      <c r="C141" t="s">
-        <v>547</v>
-      </c>
-      <c r="D141" t="s">
-        <v>546</v>
+        <v>226</v>
+      </c>
+      <c r="H141" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B142" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="C142" t="s">
+        <v>394</v>
+      </c>
+      <c r="D142" t="s">
+        <v>395</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>625</v>
       </c>
       <c r="H142" t="s">
-        <v>638</v>
+        <v>624</v>
+      </c>
+      <c r="I142" t="s">
+        <v>623</v>
+      </c>
+      <c r="J142" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C143" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D143" t="s">
-        <v>395</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>626</v>
+        <v>397</v>
+      </c>
+      <c r="E143" t="s">
+        <v>889</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>625</v>
+        <v>141</v>
       </c>
       <c r="H143" t="s">
-        <v>624</v>
-      </c>
-      <c r="I143" t="s">
-        <v>623</v>
-      </c>
-      <c r="J143" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" t="s">
+        <v>229</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="H144" t="s">
+        <v>631</v>
+      </c>
+      <c r="I144" t="s">
+        <v>630</v>
+      </c>
+      <c r="J144" t="s">
+        <v>628</v>
+      </c>
+      <c r="K144" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" t="s">
+        <v>330</v>
+      </c>
+      <c r="D145" t="s">
+        <v>480</v>
+      </c>
+      <c r="E145" t="s">
+        <v>636</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="H145" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>3</v>
       </c>
-      <c r="B144" t="s">
-        <v>228</v>
-      </c>
-      <c r="C144" t="s">
-        <v>396</v>
-      </c>
-      <c r="D144" t="s">
-        <v>397</v>
-      </c>
-      <c r="E144" t="s">
-        <v>889</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H144" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>60</v>
-      </c>
-      <c r="B145" t="s">
-        <v>229</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="H145" t="s">
-        <v>631</v>
-      </c>
-      <c r="I145" t="s">
-        <v>630</v>
-      </c>
-      <c r="J145" t="s">
-        <v>628</v>
-      </c>
-      <c r="K145" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>61</v>
-      </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C146" t="s">
-        <v>330</v>
+        <v>548</v>
       </c>
       <c r="D146" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="E146" t="s">
-        <v>636</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="H146" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D147" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E147" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>62</v>
+      </c>
+      <c r="B148" t="s">
+        <v>233</v>
+      </c>
+      <c r="C148" t="s">
+        <v>398</v>
+      </c>
+      <c r="D148" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>3</v>
       </c>
-      <c r="B148" t="s">
-        <v>232</v>
-      </c>
-      <c r="C148" t="s">
-        <v>550</v>
-      </c>
-      <c r="D148" t="s">
-        <v>551</v>
-      </c>
-      <c r="E148" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>62</v>
-      </c>
       <c r="B149" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C149" t="s">
-        <v>398</v>
+        <v>552</v>
       </c>
       <c r="D149" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+      <c r="E149" t="s">
+        <v>627</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="H149" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" t="s">
+        <v>235</v>
+      </c>
+      <c r="C150" t="s">
+        <v>554</v>
+      </c>
+      <c r="D150" t="s">
+        <v>555</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H150" t="s">
+        <v>624</v>
+      </c>
+      <c r="I150" t="s">
+        <v>623</v>
+      </c>
+      <c r="J150" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" t="s">
+        <v>400</v>
+      </c>
+      <c r="C151" t="s">
+        <v>399</v>
+      </c>
+      <c r="D151" t="s">
+        <v>556</v>
+      </c>
+      <c r="E151" t="s">
+        <v>621</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>94</v>
+      </c>
+      <c r="B152" t="s">
+        <v>95</v>
+      </c>
+      <c r="C152" t="s">
+        <v>557</v>
+      </c>
+      <c r="D152" t="s">
+        <v>559</v>
+      </c>
+      <c r="E152" t="s">
+        <v>895</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="H152" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>3</v>
       </c>
-      <c r="B150" t="s">
-        <v>234</v>
-      </c>
-      <c r="C150" t="s">
-        <v>552</v>
-      </c>
-      <c r="D150" t="s">
-        <v>553</v>
-      </c>
-      <c r="E150" t="s">
-        <v>627</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="H150" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>63</v>
-      </c>
-      <c r="B151" t="s">
-        <v>235</v>
-      </c>
-      <c r="C151" t="s">
-        <v>554</v>
-      </c>
-      <c r="D151" t="s">
-        <v>555</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="H151" t="s">
-        <v>624</v>
-      </c>
-      <c r="I151" t="s">
-        <v>623</v>
-      </c>
-      <c r="J151" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>64</v>
-      </c>
-      <c r="B152" t="s">
-        <v>400</v>
-      </c>
-      <c r="C152" t="s">
-        <v>399</v>
-      </c>
-      <c r="D152" t="s">
-        <v>556</v>
-      </c>
-      <c r="E152" t="s">
-        <v>621</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>94</v>
-      </c>
       <c r="B153" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="C153" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D153" t="s">
         <v>559</v>
       </c>
       <c r="E153" t="s">
-        <v>895</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="H153" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" t="s">
+        <v>237</v>
+      </c>
+      <c r="C154" t="s">
+        <v>560</v>
+      </c>
+      <c r="D154" t="s">
+        <v>434</v>
+      </c>
+      <c r="E154" t="s">
+        <v>618</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>238</v>
+      </c>
+      <c r="C155" t="s">
+        <v>561</v>
+      </c>
+      <c r="D155" t="s">
+        <v>562</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>65</v>
+      </c>
+      <c r="B156" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" t="s">
+        <v>401</v>
+      </c>
+      <c r="D156" t="s">
+        <v>483</v>
+      </c>
+      <c r="E156" t="s">
+        <v>614</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="H156" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>3</v>
       </c>
-      <c r="B154" t="s">
-        <v>236</v>
-      </c>
-      <c r="C154" t="s">
-        <v>558</v>
-      </c>
-      <c r="D154" t="s">
-        <v>559</v>
-      </c>
-      <c r="E154" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>24</v>
-      </c>
-      <c r="B155" t="s">
-        <v>237</v>
-      </c>
-      <c r="C155" t="s">
-        <v>560</v>
-      </c>
-      <c r="D155" t="s">
-        <v>434</v>
-      </c>
-      <c r="E155" t="s">
-        <v>618</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>10</v>
-      </c>
-      <c r="B156" t="s">
-        <v>238</v>
-      </c>
-      <c r="C156" t="s">
-        <v>561</v>
-      </c>
-      <c r="D156" t="s">
-        <v>562</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>65</v>
-      </c>
       <c r="B157" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C157" t="s">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="D157" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E157" t="s">
-        <v>614</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="H157" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C158" t="s">
-        <v>331</v>
+        <v>564</v>
       </c>
       <c r="D158" t="s">
-        <v>484</v>
+        <v>563</v>
       </c>
       <c r="E158" t="s">
-        <v>611</v>
+        <v>900</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C159" t="s">
-        <v>564</v>
+        <v>332</v>
       </c>
       <c r="D159" t="s">
-        <v>563</v>
+        <v>485</v>
       </c>
       <c r="E159" t="s">
-        <v>900</v>
+        <v>610</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C160" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D160" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E160" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>141</v>
@@ -7388,71 +7408,71 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B161" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C161" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D161" t="s">
-        <v>486</v>
-      </c>
-      <c r="E161" t="s">
-        <v>609</v>
+        <v>487</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>608</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>141</v>
+        <v>478</v>
+      </c>
+      <c r="H161" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B162" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C162" t="s">
-        <v>334</v>
+        <v>565</v>
       </c>
       <c r="D162" t="s">
-        <v>487</v>
+        <v>566</v>
+      </c>
+      <c r="E162" t="s">
+        <v>901</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>478</v>
+        <v>605</v>
       </c>
       <c r="H162" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C163" t="s">
-        <v>565</v>
+        <v>335</v>
       </c>
       <c r="D163" t="s">
-        <v>566</v>
+        <v>483</v>
       </c>
       <c r="E163" t="s">
-        <v>901</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="H163" t="s">
-        <v>604</v>
+        <v>141</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
@@ -7460,16 +7480,16 @@
         <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C164" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D164" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E164" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>141</v>
@@ -7477,247 +7497,247 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B165" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C165" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D165" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E165" t="s">
-        <v>602</v>
+        <v>601</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>600</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>141</v>
+        <v>599</v>
+      </c>
+      <c r="H165" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C166" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D166" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E166" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="H166" t="s">
-        <v>902</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="B167" t="s">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="C167" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="D167" t="s">
-        <v>489</v>
+        <v>567</v>
       </c>
       <c r="E167" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>141</v>
+        <v>596</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H167" t="s">
+        <v>594</v>
+      </c>
+      <c r="I167" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B168" t="s">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="C168" t="s">
-        <v>250</v>
+        <v>402</v>
       </c>
       <c r="D168" t="s">
-        <v>567</v>
+        <v>490</v>
       </c>
       <c r="E168" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>595</v>
+        <v>903</v>
       </c>
       <c r="H168" t="s">
-        <v>594</v>
-      </c>
-      <c r="I168" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C169" t="s">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="D169" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E169" t="s">
-        <v>592</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="H169" t="s">
-        <v>590</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B170" t="s">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c r="C170" t="s">
-        <v>339</v>
+        <v>925</v>
       </c>
       <c r="D170" t="s">
-        <v>491</v>
-      </c>
-      <c r="E170" t="s">
-        <v>589</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>141</v>
+        <v>926</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="H170" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B171" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C171" t="s">
-        <v>925</v>
+        <v>253</v>
       </c>
       <c r="D171" t="s">
-        <v>926</v>
+        <v>340</v>
+      </c>
+      <c r="E171" t="s">
+        <v>904</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H171" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C172" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D172" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E172" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="H172" t="s">
-        <v>585</v>
+        <v>582</v>
+      </c>
+      <c r="I172" t="s">
+        <v>581</v>
+      </c>
+      <c r="J172" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B173" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="C173" t="s">
-        <v>254</v>
+        <v>342</v>
       </c>
       <c r="D173" t="s">
-        <v>341</v>
+        <v>568</v>
       </c>
       <c r="E173" t="s">
-        <v>905</v>
+        <v>579</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H173" t="s">
-        <v>582</v>
+        <v>906</v>
       </c>
       <c r="I173" t="s">
-        <v>581</v>
-      </c>
-      <c r="J173" t="s">
-        <v>580</v>
+        <v>907</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D174" t="s">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="E174" t="s">
-        <v>579</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="H174" t="s">
-        <v>906</v>
-      </c>
-      <c r="I174" t="s">
-        <v>907</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
@@ -7725,16 +7745,16 @@
         <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C175" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D175" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E175" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>141</v>
@@ -7742,47 +7762,27 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>3</v>
+        <v>569</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>570</v>
       </c>
       <c r="C176" t="s">
-        <v>344</v>
+        <v>571</v>
       </c>
       <c r="D176" t="s">
-        <v>493</v>
+        <v>572</v>
       </c>
       <c r="E176" t="s">
-        <v>575</v>
+        <v>908</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>613</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>569</v>
-      </c>
-      <c r="B177" t="s">
-        <v>570</v>
-      </c>
-      <c r="C177" t="s">
-        <v>571</v>
-      </c>
-      <c r="D177" t="s">
-        <v>572</v>
-      </c>
-      <c r="E177" t="s">
-        <v>908</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G177" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H176" t="s">
         <v>910</v>
       </c>
     </row>
@@ -7936,48 +7936,48 @@
     <hyperlink ref="G133" r:id="rId146" xr:uid="{B8F8283E-581A-DA46-B114-817B39D1DBB7}"/>
     <hyperlink ref="F135" r:id="rId147" xr:uid="{3807A711-2643-3A4A-A717-21B9DFC0E207}"/>
     <hyperlink ref="G135" r:id="rId148" xr:uid="{451F67B8-5FEA-8B41-AFFA-62A6D0D4F340}"/>
-    <hyperlink ref="F138" r:id="rId149" xr:uid="{3B46810E-2B84-2842-9DBE-8A30AF2A6B26}"/>
-    <hyperlink ref="G139" r:id="rId150" xr:uid="{020DDB62-DD8F-0B46-B528-E26D5389171F}"/>
-    <hyperlink ref="F143" r:id="rId151" xr:uid="{FED26EA7-C7DA-524A-A249-B73C724BADB1}"/>
-    <hyperlink ref="G143" r:id="rId152" xr:uid="{665EF855-FC67-3849-9936-45E93EA26836}"/>
-    <hyperlink ref="G144" r:id="rId153" xr:uid="{DF7F9913-3FCD-4D45-B8F0-4FDD1A26C56B}"/>
-    <hyperlink ref="F146" r:id="rId154" xr:uid="{BC69A81D-8640-3B49-9921-722134BDD757}"/>
-    <hyperlink ref="G146" r:id="rId155" xr:uid="{8BE7266F-ED09-164B-80A1-2B0D7759E967}"/>
-    <hyperlink ref="G145" r:id="rId156" xr:uid="{17169699-47AC-9D4E-ADD9-7551D4CD0FDA}"/>
-    <hyperlink ref="F151" r:id="rId157" xr:uid="{7D8167AF-52C3-7344-9BD3-5231771042E7}"/>
-    <hyperlink ref="G151" r:id="rId158" xr:uid="{AF6A0EE0-FDFF-9644-90CC-BE873FEE8F10}"/>
-    <hyperlink ref="F152" r:id="rId159" xr:uid="{F309C42D-AB44-594A-8B72-6F41E3972168}"/>
-    <hyperlink ref="G152" r:id="rId160" xr:uid="{7DFFEC43-4BDB-2A47-8035-1A61C0B6DE7D}"/>
-    <hyperlink ref="F155" r:id="rId161" xr:uid="{090FAA2E-E1C6-AD40-96C6-9B2B802CC11F}"/>
-    <hyperlink ref="G155" r:id="rId162" xr:uid="{9CDCBFE4-8A58-DB48-B32A-9A0AF3E56FA5}"/>
-    <hyperlink ref="G156" r:id="rId163" xr:uid="{943EEB70-D9BF-1C46-9039-EE457A68349E}"/>
-    <hyperlink ref="F157" r:id="rId164" xr:uid="{1D0CE57B-5E80-7145-A536-351499E101D4}"/>
-    <hyperlink ref="G157" r:id="rId165" xr:uid="{6575763A-8311-4E46-A6CF-D7CF2CFDC214}"/>
-    <hyperlink ref="G158" r:id="rId166" xr:uid="{373A3CD6-73C2-8949-B001-D30281A60066}"/>
-    <hyperlink ref="G159" r:id="rId167" xr:uid="{84F0E0C2-4460-4045-9C99-A2654443723D}"/>
-    <hyperlink ref="G160" r:id="rId168" xr:uid="{89A7EC24-F728-4249-99E1-2165DAE5C240}"/>
-    <hyperlink ref="G161" r:id="rId169" xr:uid="{D423CBE7-3A5F-124C-9675-71D798ECED30}"/>
-    <hyperlink ref="F162" r:id="rId170" xr:uid="{1F311077-0847-6A46-91F8-8BA13FCF6715}"/>
-    <hyperlink ref="G162" r:id="rId171" xr:uid="{193DDD6A-FE41-FA49-8456-D13FA1C5ED57}"/>
-    <hyperlink ref="F163" r:id="rId172" xr:uid="{B442BD77-6C1C-0A49-8A4F-050A56F7BD36}"/>
-    <hyperlink ref="G163" r:id="rId173" xr:uid="{E4E0E2FF-3998-AB41-9DCE-D424085EC51F}"/>
-    <hyperlink ref="G164" r:id="rId174" xr:uid="{CFDEC416-747E-1D41-B483-7EDD288C8D3A}"/>
-    <hyperlink ref="G165" r:id="rId175" xr:uid="{9BDFC207-B18C-7640-8657-FA1F7B456978}"/>
-    <hyperlink ref="F166" r:id="rId176" xr:uid="{C76AC0C9-BA49-DE47-A79E-77C65C4F9D7E}"/>
-    <hyperlink ref="G166" r:id="rId177" xr:uid="{0401FC4C-EC8C-874C-8838-A2D888FF7280}"/>
-    <hyperlink ref="F167" r:id="rId178" xr:uid="{576F6F2E-A097-7A44-A646-F5C3DC4A67B2}"/>
-    <hyperlink ref="F168" r:id="rId179" xr:uid="{2317AA5D-90B8-F646-857A-4E780D779798}"/>
-    <hyperlink ref="G168" r:id="rId180" xr:uid="{0C2E545F-48C5-1E47-ADE2-37225A0F0085}"/>
-    <hyperlink ref="F169" r:id="rId181" xr:uid="{FA05270A-9154-384A-BBE6-F2123841CB09}"/>
-    <hyperlink ref="G170" r:id="rId182" xr:uid="{F23838C1-CD08-5E42-89A6-D27F2668E87A}"/>
-    <hyperlink ref="F171" r:id="rId183" xr:uid="{E88BEA03-65CC-F24F-9007-5BFE6F0A592D}"/>
-    <hyperlink ref="F172" r:id="rId184" xr:uid="{D6507E3C-BF1E-4640-88E1-232B6F539368}"/>
-    <hyperlink ref="F173" r:id="rId185" xr:uid="{AC1122AA-97AA-C048-9943-29D7523A2BB1}"/>
-    <hyperlink ref="G173" r:id="rId186" xr:uid="{B6F39F78-ECF0-D54F-A797-D48EB5C1FE2A}"/>
-    <hyperlink ref="F174" r:id="rId187" xr:uid="{2B379872-9C0C-DB4E-9A7B-2E8EA2B84204}"/>
-    <hyperlink ref="G174" r:id="rId188" xr:uid="{2E44D699-3B36-2342-8F56-EE64BB36D33F}"/>
-    <hyperlink ref="G176" r:id="rId189" xr:uid="{46B38EF4-6C92-2F41-9B06-6B75C6CB33B1}"/>
-    <hyperlink ref="G175" r:id="rId190" xr:uid="{49CA335C-62BC-414E-AA5C-BE8E9E86F2F6}"/>
+    <hyperlink ref="F137" r:id="rId149" xr:uid="{3B46810E-2B84-2842-9DBE-8A30AF2A6B26}"/>
+    <hyperlink ref="G138" r:id="rId150" xr:uid="{020DDB62-DD8F-0B46-B528-E26D5389171F}"/>
+    <hyperlink ref="F142" r:id="rId151" xr:uid="{FED26EA7-C7DA-524A-A249-B73C724BADB1}"/>
+    <hyperlink ref="G142" r:id="rId152" xr:uid="{665EF855-FC67-3849-9936-45E93EA26836}"/>
+    <hyperlink ref="G143" r:id="rId153" xr:uid="{DF7F9913-3FCD-4D45-B8F0-4FDD1A26C56B}"/>
+    <hyperlink ref="F145" r:id="rId154" xr:uid="{BC69A81D-8640-3B49-9921-722134BDD757}"/>
+    <hyperlink ref="G145" r:id="rId155" xr:uid="{8BE7266F-ED09-164B-80A1-2B0D7759E967}"/>
+    <hyperlink ref="G144" r:id="rId156" xr:uid="{17169699-47AC-9D4E-ADD9-7551D4CD0FDA}"/>
+    <hyperlink ref="F150" r:id="rId157" xr:uid="{7D8167AF-52C3-7344-9BD3-5231771042E7}"/>
+    <hyperlink ref="G150" r:id="rId158" xr:uid="{AF6A0EE0-FDFF-9644-90CC-BE873FEE8F10}"/>
+    <hyperlink ref="F151" r:id="rId159" xr:uid="{F309C42D-AB44-594A-8B72-6F41E3972168}"/>
+    <hyperlink ref="G151" r:id="rId160" xr:uid="{7DFFEC43-4BDB-2A47-8035-1A61C0B6DE7D}"/>
+    <hyperlink ref="F154" r:id="rId161" xr:uid="{090FAA2E-E1C6-AD40-96C6-9B2B802CC11F}"/>
+    <hyperlink ref="G154" r:id="rId162" xr:uid="{9CDCBFE4-8A58-DB48-B32A-9A0AF3E56FA5}"/>
+    <hyperlink ref="G155" r:id="rId163" xr:uid="{943EEB70-D9BF-1C46-9039-EE457A68349E}"/>
+    <hyperlink ref="F156" r:id="rId164" xr:uid="{1D0CE57B-5E80-7145-A536-351499E101D4}"/>
+    <hyperlink ref="G156" r:id="rId165" xr:uid="{6575763A-8311-4E46-A6CF-D7CF2CFDC214}"/>
+    <hyperlink ref="G157" r:id="rId166" xr:uid="{373A3CD6-73C2-8949-B001-D30281A60066}"/>
+    <hyperlink ref="G158" r:id="rId167" xr:uid="{84F0E0C2-4460-4045-9C99-A2654443723D}"/>
+    <hyperlink ref="G159" r:id="rId168" xr:uid="{89A7EC24-F728-4249-99E1-2165DAE5C240}"/>
+    <hyperlink ref="G160" r:id="rId169" xr:uid="{D423CBE7-3A5F-124C-9675-71D798ECED30}"/>
+    <hyperlink ref="F161" r:id="rId170" xr:uid="{1F311077-0847-6A46-91F8-8BA13FCF6715}"/>
+    <hyperlink ref="G161" r:id="rId171" xr:uid="{193DDD6A-FE41-FA49-8456-D13FA1C5ED57}"/>
+    <hyperlink ref="F162" r:id="rId172" xr:uid="{B442BD77-6C1C-0A49-8A4F-050A56F7BD36}"/>
+    <hyperlink ref="G162" r:id="rId173" xr:uid="{E4E0E2FF-3998-AB41-9DCE-D424085EC51F}"/>
+    <hyperlink ref="G163" r:id="rId174" xr:uid="{CFDEC416-747E-1D41-B483-7EDD288C8D3A}"/>
+    <hyperlink ref="G164" r:id="rId175" xr:uid="{9BDFC207-B18C-7640-8657-FA1F7B456978}"/>
+    <hyperlink ref="F165" r:id="rId176" xr:uid="{C76AC0C9-BA49-DE47-A79E-77C65C4F9D7E}"/>
+    <hyperlink ref="G165" r:id="rId177" xr:uid="{0401FC4C-EC8C-874C-8838-A2D888FF7280}"/>
+    <hyperlink ref="F166" r:id="rId178" xr:uid="{576F6F2E-A097-7A44-A646-F5C3DC4A67B2}"/>
+    <hyperlink ref="F167" r:id="rId179" xr:uid="{2317AA5D-90B8-F646-857A-4E780D779798}"/>
+    <hyperlink ref="G167" r:id="rId180" xr:uid="{0C2E545F-48C5-1E47-ADE2-37225A0F0085}"/>
+    <hyperlink ref="F168" r:id="rId181" xr:uid="{FA05270A-9154-384A-BBE6-F2123841CB09}"/>
+    <hyperlink ref="G169" r:id="rId182" xr:uid="{F23838C1-CD08-5E42-89A6-D27F2668E87A}"/>
+    <hyperlink ref="F170" r:id="rId183" xr:uid="{E88BEA03-65CC-F24F-9007-5BFE6F0A592D}"/>
+    <hyperlink ref="F171" r:id="rId184" xr:uid="{D6507E3C-BF1E-4640-88E1-232B6F539368}"/>
+    <hyperlink ref="F172" r:id="rId185" xr:uid="{AC1122AA-97AA-C048-9943-29D7523A2BB1}"/>
+    <hyperlink ref="G172" r:id="rId186" xr:uid="{B6F39F78-ECF0-D54F-A797-D48EB5C1FE2A}"/>
+    <hyperlink ref="F173" r:id="rId187" xr:uid="{2B379872-9C0C-DB4E-9A7B-2E8EA2B84204}"/>
+    <hyperlink ref="G173" r:id="rId188" xr:uid="{2E44D699-3B36-2342-8F56-EE64BB36D33F}"/>
+    <hyperlink ref="G175" r:id="rId189" xr:uid="{46B38EF4-6C92-2F41-9B06-6B75C6CB33B1}"/>
+    <hyperlink ref="G174" r:id="rId190" xr:uid="{49CA335C-62BC-414E-AA5C-BE8E9E86F2F6}"/>
     <hyperlink ref="G20" r:id="rId191" xr:uid="{6DB7268C-AAB8-7944-B845-E6E46B9F52AA}"/>
     <hyperlink ref="F24" r:id="rId192" xr:uid="{BC320BDC-1607-514E-B089-1411A78C0921}"/>
     <hyperlink ref="F35" r:id="rId193" display="http://www.bignwideshoes.com/" xr:uid="{7906FD66-7EDB-DC41-81C0-E701334C4311}"/>
@@ -7995,9 +7995,9 @@
     <hyperlink ref="G67" r:id="rId205" display="http://www.cranialtech.com/" xr:uid="{5C86B993-88F8-4A4B-B71F-882B79D16AB6}"/>
     <hyperlink ref="F70" r:id="rId206" display="mailto:loren@fountainop.com" xr:uid="{839AF587-3119-384B-AF4F-CA723E649F44}"/>
     <hyperlink ref="G98" r:id="rId207" xr:uid="{31FDB561-F6CC-9C48-B12E-54670D4DDE96}"/>
-    <hyperlink ref="F150" r:id="rId208" display="http://www.achillespo.com/" xr:uid="{2A0600AA-1CC8-9349-AB0B-AE025C34D29B}"/>
-    <hyperlink ref="G150" r:id="rId209" display="http://www.achillespo.com/" xr:uid="{C0D98385-863B-4747-B181-AA974ED9BFEF}"/>
-    <hyperlink ref="G177" r:id="rId210" display="http://www.p-o-group.com/" xr:uid="{7809F398-8C0C-B745-B857-0D9F425F4660}"/>
+    <hyperlink ref="F149" r:id="rId208" display="http://www.achillespo.com/" xr:uid="{2A0600AA-1CC8-9349-AB0B-AE025C34D29B}"/>
+    <hyperlink ref="G149" r:id="rId209" display="http://www.achillespo.com/" xr:uid="{C0D98385-863B-4747-B181-AA974ED9BFEF}"/>
+    <hyperlink ref="G176" r:id="rId210" display="http://www.p-o-group.com/" xr:uid="{7809F398-8C0C-B745-B857-0D9F425F4660}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
